--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3820694.258301465</v>
+        <v>3818150.448794382</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7402984.374560699</v>
+        <v>7402984.374560697</v>
       </c>
     </row>
     <row r="11">
@@ -662,17 +662,17 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12.83417464571001</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>136.6253230858994</v>
       </c>
       <c r="W2" t="n">
-        <v>219.4450108596164</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>22.25920201235136</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>171.9454555014551</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>79.63579206135121</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>20.64107630343883</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>109.8280576942315</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>72.36698404190659</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>38.08911925464449</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>193.7369777182762</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>17.28688718947221</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>220.4747617066646</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.5641520412323</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>101.4926604386398</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425464991</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.839096916145</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115233</v>
+        <v>18.47335059663555</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256469</v>
+        <v>134.3791152901737</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0697045406876</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640951</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.2982904716025</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>170.561464046687</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663479</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>29.24923305751706</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>19.91555826189101</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881257</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833642</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518786</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576151</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356917</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634799</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174124</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>566.8162363079209</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>566.8162363079209</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>300.4385797407429</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>300.4385797407429</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
         <v>21.09711040012049</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>833.1938928750989</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>833.1938928750989</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>566.8162363079209</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>694.6220209084487</v>
+        <v>218.0341821179661</v>
       </c>
       <c r="C3" t="n">
-        <v>520.1689916273217</v>
+        <v>43.58115283683904</v>
       </c>
       <c r="D3" t="n">
-        <v>371.2345819660704</v>
+        <v>43.58115283683904</v>
       </c>
       <c r="E3" t="n">
-        <v>211.9971269606149</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4410,22 +4410,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>121.653531464967</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>268.3979551252636</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>633.6459810884528</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>425.79448088292</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8373579285167</v>
+        <v>218.0341821179661</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="C4" t="n">
         <v>21.09711040012049</v>
@@ -4489,16 +4489,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075542</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1034.005947982349</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>808.5369117403633</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U4" t="n">
-        <v>542.1592551731853</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="V4" t="n">
-        <v>287.4747669672984</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="W4" t="n">
-        <v>21.09711040012049</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="X4" t="n">
-        <v>21.09711040012049</v>
+        <v>101.5373044014854</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.09711040012049</v>
+        <v>101.5373044014854</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157.4777567984221</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>157.4777567984221</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>157.4777567984221</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471533</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>690.233069932778</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>423.8554133656</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X5" t="n">
-        <v>157.4777567984221</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>157.4777567984221</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>59.57096823309473</v>
       </c>
       <c r="E6" t="n">
         <v>21.09711040012049</v>
@@ -4647,13 +4647,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>478.4519222278687</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
         <v>739.5286634293598</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>462.9384134849055</v>
       </c>
       <c r="V6" t="n">
-        <v>859.1616031188769</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="W6" t="n">
-        <v>604.9242463906753</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="X6" t="n">
-        <v>397.0727461851425</v>
+        <v>227.7863052531628</v>
       </c>
       <c r="Y6" t="n">
-        <v>189.3124474201885</v>
+        <v>227.7863052531628</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>652.4144760322547</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>483.4782931043478</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>333.3616536920121</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>185.4485601096189</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>38.55861261170858</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
         <v>21.09711040012049</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>464.591469045332</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>1054.855520006025</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>834.0629408624944</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.8593072485415</v>
+        <v>981.8557524576343</v>
       </c>
       <c r="C8" t="n">
-        <v>373.8967903081298</v>
+        <v>612.8932355172226</v>
       </c>
       <c r="D8" t="n">
-        <v>373.8967903081298</v>
+        <v>612.8932355172226</v>
       </c>
       <c r="E8" t="n">
-        <v>373.8967903081298</v>
+        <v>227.1049829189784</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9512895589264</v>
+        <v>220.1594821697749</v>
       </c>
       <c r="G8" t="n">
-        <v>355.2854715909976</v>
+        <v>117.6416433428659</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685574</v>
+        <v>117.6416433428659</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685574</v>
+        <v>51.21125520685594</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467183</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607432</v>
+        <v>442.1757437607448</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904594</v>
+        <v>795.1862829045967</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.647962995233</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209586</v>
+        <v>1655.591685209592</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.905718940606</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550201</v>
+        <v>2359.35653055021</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661168</v>
+        <v>2540.564622661177</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342787</v>
+        <v>2351.81067643907</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342787</v>
+        <v>2098.22949796464</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999216</v>
+        <v>2098.22949796464</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729102</v>
+        <v>1745.460842694526</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.265459468022</v>
+        <v>1371.995084433446</v>
       </c>
       <c r="Y8" t="n">
-        <v>1113.126127492211</v>
+        <v>981.8557524576343</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010918</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199648</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818587136</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532581</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801431</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763312</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>69.87120530446761</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685574</v>
+        <v>51.21125520685594</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637189</v>
+        <v>113.4887579637196</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148184</v>
+        <v>298.0857543148198</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482999</v>
+        <v>931.8250374996621</v>
       </c>
       <c r="M9" t="n">
-        <v>1226.36102093314</v>
+        <v>1294.891505973965</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.13306147187</v>
+        <v>1842.133061471877</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.01987145926</v>
+        <v>2174.019871459268</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888884</v>
+        <v>2421.055229888893</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442629</v>
+        <v>2536.272628442639</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342797</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251712</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685361</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751591</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519848</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791647</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586114</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.72505782116</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0542434877111</v>
+        <v>388.1345629950721</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1180605598042</v>
+        <v>219.1983800671652</v>
       </c>
       <c r="D10" t="n">
-        <v>514.0014211474685</v>
+        <v>219.1983800671652</v>
       </c>
       <c r="E10" t="n">
-        <v>366.0883275650754</v>
+        <v>219.1983800671652</v>
       </c>
       <c r="F10" t="n">
-        <v>219.198380067165</v>
+        <v>219.1983800671652</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685574</v>
+        <v>51.21125520685594</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685574</v>
+        <v>51.21125520685594</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685574</v>
+        <v>51.21125520685594</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380163</v>
+        <v>76.63468308380212</v>
       </c>
       <c r="K10" t="n">
-        <v>248.250021567657</v>
+        <v>248.250021567658</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368923</v>
+        <v>523.385004336894</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990404</v>
+        <v>823.8653899904064</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101616</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931095</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616505</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477368</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412625</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1349.016368067572</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477364</v>
+        <v>1126.035066541978</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477364</v>
+        <v>836.9166930366196</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477364</v>
+        <v>836.9166930366196</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.484838359498</v>
+        <v>836.9166930366196</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.495287461481</v>
+        <v>608.9271421386022</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.702708317951</v>
+        <v>388.1345629950721</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,16 +5039,16 @@
         <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5057,31 +5057,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,73 +5255,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5340,40 +5340,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474266</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>113.9333885650335</v>
+        <v>382.4184417036841</v>
       </c>
       <c r="F16" t="n">
-        <v>113.9333885650335</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5476,10 +5476,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,46 +5504,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565535</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5990,16 +5990,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,16 +6260,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745237</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1965.53275017731</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6464,31 +6464,31 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.71788640035</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,49 +6701,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249859</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6926,40 +6926,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033211</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,34 +7546,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7640,7 +7640,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7649,16 +7649,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,16 +7667,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7685,10 +7685,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.13373767211345</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8149,7 +8149,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658823</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8295,16 +8295,16 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>45.78351343583191</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544045</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8535,13 +8535,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084441</v>
       </c>
       <c r="M9" t="n">
-        <v>273.4068835459981</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>230.9976142082435</v>
+        <v>161.7749020457994</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>117.1847295890521</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>145.6085800303778</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823275</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877455</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520725</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>635907.6621649641</v>
+        <v>635907.662164964</v>
       </c>
     </row>
     <row r="8">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176769</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977558</v>
@@ -26329,31 +26329,31 @@
         <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="I2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977561</v>
-      </c>
       <c r="K2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977563</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580798</v>
+        <v>390680.0076580825</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606926</v>
+        <v>507909.2320606899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101789</v>
+        <v>95270.23779101852</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954688</v>
+        <v>132717.9756954682</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501115</v>
+        <v>140465.2517501107</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179362</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179367</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179362</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="J4" t="n">
+        <v>11167.03225179356</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179356</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11167.03225179356</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11167.03225179361</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11167.03225179355</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11167.03225179359</v>
+      </c>
+      <c r="P4" t="n">
         <v>11167.03225179354</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179353</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11167.03225179353</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11167.03225179354</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11167.0322517935</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567903</v>
+        <v>92902.86757567924</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193847.4237968026</v>
+        <v>-193847.4237968022</v>
       </c>
       <c r="C6" t="n">
         <v>486240.5567943904</v>
       </c>
       <c r="D6" t="n">
-        <v>176467.598633806</v>
+        <v>176467.5986338038</v>
       </c>
       <c r="E6" t="n">
-        <v>166769.1405613623</v>
+        <v>166734.4026359299</v>
       </c>
       <c r="F6" t="n">
-        <v>674678.3726220552</v>
+        <v>674643.6346966197</v>
       </c>
       <c r="G6" t="n">
-        <v>674678.3726220555</v>
+        <v>674643.6346966201</v>
       </c>
       <c r="H6" t="n">
-        <v>674678.3726220554</v>
+        <v>674643.6346966191</v>
       </c>
       <c r="I6" t="n">
-        <v>674678.3726220554</v>
+        <v>674643.6346966195</v>
       </c>
       <c r="J6" t="n">
-        <v>605679.2182029415</v>
+        <v>605644.4802775056</v>
       </c>
       <c r="K6" t="n">
-        <v>674678.3726220555</v>
+        <v>674643.6346966196</v>
       </c>
       <c r="L6" t="n">
-        <v>579408.1348310374</v>
+        <v>579373.396905601</v>
       </c>
       <c r="M6" t="n">
-        <v>541960.3969265863</v>
+        <v>541925.659001151</v>
       </c>
       <c r="N6" t="n">
-        <v>674678.3726220552</v>
+        <v>674643.6346966198</v>
       </c>
       <c r="O6" t="n">
-        <v>674678.3726220555</v>
+        <v>674643.6346966201</v>
       </c>
       <c r="P6" t="n">
-        <v>674678.3726220552</v>
+        <v>674643.6346966197</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="J2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.272377253606402e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627835</v>
+        <v>933.7024595627857</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26750,7 +26750,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26793,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856967</v>
+        <v>640.1406900856992</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.054353704822555e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933052</v>
+        <v>319.6474457933075</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788905</v>
+        <v>434.273040778888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841906</v>
+        <v>376.4268100841931</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139516</v>
+        <v>532.5675980139491</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841906</v>
+        <v>376.4268100841931</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139516</v>
+        <v>532.5675980139489</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841906</v>
+        <v>376.4268100841931</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139516</v>
+        <v>532.5675980139491</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>191.1269353842355</v>
       </c>
       <c r="W2" t="n">
-        <v>129.7959578577966</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.3858784430496</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>33.7372402758493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>87.61102903727662</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27585,13 +27585,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>184.0780879401549</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>217.9242007759034</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>297.3641166365625</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>119.5559612007565</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>39.06360943114908</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>149.5967798490744</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27831,10 +27831,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>66.04823662992641</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.16968962224826</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>310.0564993496096</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203003</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465025</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348404</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.77644916451661</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164526895</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430993</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>12.37555977878188</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>115.961534289904</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,22 +28324,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.509284512940834e-12</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,10 +28375,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28387,13 +28387,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,13 +28612,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28810,10 +28810,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>8.394287816523923e-14</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.429578708524912e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29983,10 +29983,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>6.272377253606402e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.272377253606402e-14</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.272377253606402e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.751381063403296e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.429578708524912e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885559</v>
+        <v>3.753577726885568</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546674</v>
+        <v>38.44132789546683</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.709805315756</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972535</v>
+        <v>318.5802175972543</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763193</v>
+        <v>477.4691627763204</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354933</v>
+        <v>592.3427171354948</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359944</v>
+        <v>659.095405035996</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752508</v>
+        <v>669.7602577525097</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307897</v>
+        <v>632.4356192307912</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983024</v>
+        <v>539.7691690983037</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542132</v>
+        <v>405.3441667542141</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864752</v>
+        <v>235.7856768864758</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140475</v>
+        <v>85.53465245140497</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944158</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508447</v>
+        <v>0.3002862181508454</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436935</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035141</v>
+        <v>19.39634732035146</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026275</v>
+        <v>69.14683309026292</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079431</v>
       </c>
       <c r="K9" t="n">
-        <v>324.303051450217</v>
+        <v>324.3030514502178</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571283</v>
+        <v>436.0654741571294</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617169</v>
+        <v>508.8678404617182</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152217</v>
+        <v>522.336058015223</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519086</v>
+        <v>477.8354464519098</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947592</v>
+        <v>383.5050724947601</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463703</v>
+        <v>256.362984746371</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204793</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366401</v>
+        <v>37.30405581366411</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413394</v>
+        <v>8.095024154133961</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419037</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68372574675256</v>
+        <v>1.683725746752564</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840008</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415882</v>
+        <v>50.63422518415895</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954063</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772524</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490125</v>
+        <v>250.3240987490131</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023127</v>
+        <v>263.9316641023133</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462358</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046256</v>
+        <v>237.9869810046262</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708732</v>
+        <v>203.6389757708737</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939807</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307418</v>
+        <v>75.70643221307436</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658779</v>
+        <v>29.34274778658786</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942755</v>
+        <v>7.194100917942773</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650338</v>
+        <v>0.09183958618650362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043702</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216798006</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214695</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,43 +32382,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983588</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,31 +32792,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500045</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.431822783302</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,34 +33263,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518798</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897666</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445158004</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>569.5723171953905</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>193.9649970098534</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>101.5721424897439</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34869,7 +34869,7 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958076</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>238.3094620181792</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705672</v>
+        <v>137.534313070568</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313388</v>
+        <v>257.3793117313399</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655061</v>
+        <v>356.5763021655076</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087217</v>
+        <v>428.7491718087233</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559171</v>
+        <v>440.3471941559188</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809103</v>
+        <v>402.3374078091044</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430329</v>
+        <v>308.5361733430341</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797637</v>
+        <v>183.0384768797647</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234306</v>
+        <v>20.20013907234366</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127597</v>
+        <v>62.90656844127642</v>
       </c>
       <c r="K9" t="n">
-        <v>186.461612475858</v>
+        <v>186.4616124758588</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772542</v>
+        <v>640.1406900856992</v>
       </c>
       <c r="M9" t="n">
-        <v>640.1406900856967</v>
+        <v>366.7338065396999</v>
       </c>
       <c r="N9" t="n">
-        <v>621.9919601401319</v>
+        <v>552.7692479776891</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074642</v>
+        <v>335.2392020074653</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804289</v>
+        <v>249.5306650804299</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603488</v>
+        <v>116.3812106603494</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783581</v>
+        <v>24.53548676783612</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873323</v>
+        <v>25.68023017873351</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513691</v>
+        <v>173.3488267513696</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093286</v>
+        <v>277.9141240093293</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641532</v>
+        <v>303.5155410641539</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.7881314254644</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186659</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357672</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228593</v>
+        <v>54.82702814228627</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902381</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410454</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999264</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071393</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625073</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789202</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316921</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279861</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388575</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074353</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098925</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324671</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>426.9760727509461</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>59.99058959552318</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
